--- a/biology/Zoologie/Ibis_géant/Ibis_géant.xlsx
+++ b/biology/Zoologie/Ibis_géant/Ibis_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudibis gigantea
 L'Ibis géant (Pseudibis gigantea) est une espèce d'oiseaux de la famille des threskiornithidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un oiseau de grande taille : 1 m à 1,05 m de haut.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple le centre et le nord du Cambodge, le sud du Laos et l'extrême sud-ouest du Vietnam. Historiquement, on le trouvait également dans le centre et le sud de la Thaïlande, d'où il a probablement disparu.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Régions basses et humides, boisées ou non. Les régions humides du Cambodge semblent ses derniers retranchements
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Se nourrit de crustacés, amphibiens et reptiles.
-Reproduction
-Mal connue, bien qu'on pense qu'il niche dans les arbres.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se nourrit de crustacés, amphibiens et reptiles.
 </t>
         </is>
       </c>
@@ -621,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,12 +657,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Statut</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Menacé par la destruction de son habitat, les dérangements divers et la chasse. Il ne subsisterait qu'une cinquantaine d'individus.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mal connue, bien qu'on pense qu'il niche dans les arbres.
 </t>
         </is>
       </c>
@@ -652,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,13 +694,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>L'animal et l'homme</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philatélie
-Cet oiseau a été figuré sur un timbre du Cambodge (2005, 1200 r.)
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Menacé par la destruction de son habitat, les dérangements divers et la chasse. Il ne subsisterait qu'une cinquantaine d'individus.
 </t>
         </is>
       </c>
@@ -684,7 +712,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ibis_g%C3%A9ant</t>
+          <t>Ibis_géant</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,10 +727,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>L'animal et l'homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau a été figuré sur un timbre du Cambodge (2005, 1200 r.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ibis_géant</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ibis_g%C3%A9ant</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Collar, Crosby et Stattersfield, Birds to watch II - The world list of threatened birds, 1994, p. 45.</t>
         </is>
